--- a/cert-generator/VEC Final Score Sheet_updated Feb 16.xlsx
+++ b/cert-generator/VEC Final Score Sheet_updated Feb 16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\AppData\Local\Packages\5319275A.WhatsAppDesktop_cv1g1gvanyjgm\LocalState\sessions\CB441697B279F2A24F7AF41213A0FE6BD5EC830D\transfers\2026-08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90D95B7-10D8-4335-BBF4-A2AF4111EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D0F54D-B1EC-4F4D-A776-18300471F768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="553">
   <si>
     <t>Marks</t>
   </si>
@@ -1634,9 +1634,6 @@
     <t>School Name</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
     <t>8 D</t>
   </si>
   <si>
@@ -1664,9 +1661,6 @@
     <t>7 A</t>
   </si>
   <si>
-    <t>5 -</t>
-  </si>
-  <si>
     <t>10 C</t>
   </si>
   <si>
@@ -1683,6 +1677,21 @@
   </si>
   <si>
     <t>Sharada Vidyanikethana Public School</t>
+  </si>
+  <si>
+    <t>Secured Passing grade</t>
+  </si>
+  <si>
+    <t>Secured C</t>
+  </si>
+  <si>
+    <t>Secured B</t>
+  </si>
+  <si>
+    <t>Participated</t>
+  </si>
+  <si>
+    <t>Secured A</t>
   </si>
 </sst>
 </file>
@@ -1759,12 +1768,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2067,18 +2081,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFBA875-A0A9-49DD-8917-7F3125732DDD}">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:G178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>528</v>
       </c>
@@ -2088,7 +2103,7 @@
       <c r="C1" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>531</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2100,13 +2115,10 @@
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2114,32 +2126,22 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>534</v>
+      <c r="D2" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G2">
-        <v>44</v>
-      </c>
-      <c r="H2" t="str">
-        <f>IF(G2="","",
- IF(G2/100&gt;=0.81,"Secured A+",
- IF(G2/100&gt;=0.71,"Secured A",
- IF(G2/100&gt;=0.61,"Secured B",
- IF(G2/100&gt;=0.51,"Secured C",
- IF(G2/100&gt;=0.33,"Secured Passing grade",
- "Participated"))))))</f>
-        <v>Secured Passing grade</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2147,32 +2149,22 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>535</v>
+      <c r="D3" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G3" t="s">
         <v>549</v>
       </c>
-      <c r="G3">
-        <v>67</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="0">IF(G3="","",
- IF(G3/100&gt;=0.81,"Secured A+",
- IF(G3/100&gt;=0.71,"Secured A",
- IF(G3/100&gt;=0.61,"Secured B",
- IF(G3/100&gt;=0.51,"Secured C",
- IF(G3/100&gt;=0.33,"Secured Passing grade",
- "Participated"))))))</f>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -2180,26 +2172,22 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>534</v>
+      <c r="D4" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G4" t="s">
         <v>549</v>
       </c>
-      <c r="G4">
-        <v>71</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2207,26 +2195,22 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
-        <v>534</v>
+      <c r="D5" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G5">
-        <v>78</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>548</v>
+      <c r="F5" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2234,26 +2218,22 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>536</v>
+      <c r="D6" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G6">
-        <v>77</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>548</v>
+      <c r="F6" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -2261,26 +2241,22 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>534</v>
+      <c r="D7" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G7">
-        <v>75</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>548</v>
+      <c r="F7" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -2288,26 +2264,22 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>534</v>
+      <c r="D8" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G8">
-        <v>79</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>548</v>
+      <c r="F8" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2315,26 +2287,22 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>534</v>
+      <c r="D9" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" t="s">
         <v>549</v>
       </c>
-      <c r="G9">
-        <v>73</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -2342,26 +2310,22 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>536</v>
+      <c r="D10" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G10">
-        <v>78</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>548</v>
+      <c r="F10" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G10" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -2369,26 +2333,22 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>537</v>
+      <c r="D11" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G11">
-        <v>75</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>548</v>
+      <c r="F11" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -2396,26 +2356,22 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>534</v>
+      <c r="D12" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G12" t="s">
         <v>549</v>
       </c>
-      <c r="G12">
-        <v>69</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -2423,26 +2379,22 @@
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
-        <v>535</v>
+      <c r="D13" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G13" t="s">
         <v>549</v>
       </c>
-      <c r="G13">
-        <v>70</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -2450,26 +2402,22 @@
       <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>534</v>
+      <c r="D14" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" t="s">
         <v>549</v>
       </c>
-      <c r="G14">
-        <v>68</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
@@ -2477,26 +2425,22 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
-        <v>534</v>
+      <c r="D15" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G15" t="s">
         <v>549</v>
       </c>
-      <c r="G15">
-        <v>64</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -2504,26 +2448,22 @@
       <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" t="s">
-        <v>534</v>
+      <c r="D16" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G16">
-        <v>77</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>548</v>
+      <c r="F16" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -2531,26 +2471,22 @@
       <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
-        <v>537</v>
+      <c r="D17" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" t="s">
         <v>549</v>
       </c>
-      <c r="G17">
-        <v>62</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -2558,26 +2494,22 @@
       <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D18" t="s">
-        <v>538</v>
+      <c r="D18" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G18" t="s">
         <v>549</v>
       </c>
-      <c r="G18">
-        <v>73</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -2585,26 +2517,22 @@
       <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>537</v>
+      <c r="D19" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E19" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>Participated</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>548</v>
+      <c r="F19" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -2612,26 +2540,22 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
-        <v>537</v>
+      <c r="D20" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" t="s">
         <v>549</v>
       </c>
-      <c r="G20">
-        <v>71</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -2639,26 +2563,22 @@
       <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
-        <v>537</v>
+      <c r="D21" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G21">
-        <v>53</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="F21" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G21" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -2666,26 +2586,22 @@
       <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
-        <v>537</v>
+      <c r="D22" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E22" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G22">
-        <v>76</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>548</v>
+      <c r="F22" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G22" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -2693,26 +2609,22 @@
       <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="D23" t="s">
-        <v>537</v>
+      <c r="D23" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G23" t="s">
         <v>549</v>
       </c>
-      <c r="G23">
-        <v>73</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -2720,26 +2632,22 @@
       <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="D24" t="s">
-        <v>537</v>
+      <c r="D24" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G24">
-        <v>23</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>Participated</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>548</v>
+      <c r="F24" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -2747,26 +2655,22 @@
       <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="D25" t="s">
-        <v>537</v>
+      <c r="D25" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G25" t="s">
         <v>549</v>
       </c>
-      <c r="G25">
-        <v>65</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
@@ -2774,26 +2678,22 @@
       <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="D26" t="s">
-        <v>537</v>
+      <c r="D26" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G26">
-        <v>36</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured Passing grade</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>548</v>
+      <c r="F26" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G26" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -2801,26 +2701,22 @@
       <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
-        <v>537</v>
+      <c r="D27" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G27" t="s">
         <v>549</v>
       </c>
-      <c r="G27">
-        <v>71</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B28" t="s">
         <v>80</v>
@@ -2828,26 +2724,22 @@
       <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="D28" t="s">
-        <v>537</v>
+      <c r="D28" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E28" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G28">
-        <v>76</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>548</v>
+      <c r="F28" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
@@ -2855,26 +2747,22 @@
       <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="D29" t="s">
-        <v>539</v>
+      <c r="D29" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G29">
-        <v>59</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="F29" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G29" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B30" t="s">
         <v>86</v>
@@ -2882,26 +2770,22 @@
       <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="D30" t="s">
-        <v>540</v>
+      <c r="D30" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G30" t="s">
         <v>549</v>
       </c>
-      <c r="G30">
-        <v>72</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B31" t="s">
         <v>89</v>
@@ -2909,26 +2793,22 @@
       <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
-        <v>539</v>
+      <c r="D31" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G31" t="s">
         <v>549</v>
       </c>
-      <c r="G31">
-        <v>71</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B32" t="s">
         <v>92</v>
@@ -2936,26 +2816,22 @@
       <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
-        <v>540</v>
+      <c r="D32" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E32" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G32">
-        <v>61</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="F32" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G32" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
@@ -2963,26 +2839,22 @@
       <c r="C33" t="s">
         <v>96</v>
       </c>
-      <c r="D33" t="s">
-        <v>540</v>
+      <c r="D33" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E33" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G33">
-        <v>49</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured Passing grade</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="F33" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G33" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B34" t="s">
         <v>98</v>
@@ -2990,26 +2862,22 @@
       <c r="C34" t="s">
         <v>99</v>
       </c>
-      <c r="D34" t="s">
-        <v>537</v>
+      <c r="D34" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E34" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G34" t="s">
         <v>549</v>
       </c>
-      <c r="G34">
-        <v>70</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B35" t="s">
         <v>101</v>
@@ -3017,26 +2885,22 @@
       <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="D35" t="s">
-        <v>540</v>
+      <c r="D35" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G35">
-        <v>55</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="F35" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G35" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
@@ -3044,26 +2908,22 @@
       <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="D36" t="s">
-        <v>539</v>
+      <c r="D36" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E36" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G36">
-        <v>75</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>548</v>
+      <c r="F36" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G36" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B37" t="s">
         <v>107</v>
@@ -3071,26 +2931,22 @@
       <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="D37" t="s">
-        <v>539</v>
+      <c r="D37" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E37" t="s">
         <v>109</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G37" t="s">
         <v>549</v>
       </c>
-      <c r="G37">
-        <v>66</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B38" t="s">
         <v>110</v>
@@ -3098,26 +2954,22 @@
       <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="D38" t="s">
-        <v>540</v>
+      <c r="D38" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E38" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G38" t="s">
         <v>549</v>
       </c>
-      <c r="G38">
-        <v>63</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B39" t="s">
         <v>113</v>
@@ -3125,26 +2977,22 @@
       <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="D39" t="s">
-        <v>540</v>
+      <c r="D39" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E39" t="s">
         <v>115</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G39">
-        <v>77</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>548</v>
+      <c r="F39" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G39" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B40" t="s">
         <v>116</v>
@@ -3152,26 +3000,22 @@
       <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="D40" t="s">
-        <v>540</v>
+      <c r="D40" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E40" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G40">
-        <v>77</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>548</v>
+      <c r="F40" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G40" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B41" t="s">
         <v>119</v>
@@ -3179,26 +3023,22 @@
       <c r="C41" t="s">
         <v>120</v>
       </c>
-      <c r="D41" t="s">
-        <v>540</v>
+      <c r="D41" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G41" t="s">
         <v>549</v>
       </c>
-      <c r="G41">
-        <v>73</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B42" t="s">
         <v>122</v>
@@ -3206,26 +3046,22 @@
       <c r="C42" t="s">
         <v>123</v>
       </c>
-      <c r="D42" t="s">
-        <v>540</v>
+      <c r="D42" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G42" t="s">
         <v>549</v>
       </c>
-      <c r="G42">
-        <v>65</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B43" t="s">
         <v>125</v>
@@ -3233,26 +3069,22 @@
       <c r="C43" t="s">
         <v>126</v>
       </c>
-      <c r="D43" t="s">
-        <v>540</v>
+      <c r="D43" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E43" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G43" t="s">
         <v>549</v>
       </c>
-      <c r="G43">
-        <v>72</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B44" t="s">
         <v>128</v>
@@ -3260,26 +3092,22 @@
       <c r="C44" t="s">
         <v>129</v>
       </c>
-      <c r="D44" t="s">
-        <v>540</v>
+      <c r="D44" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E44" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G44">
-        <v>75</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>548</v>
+      <c r="F44" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G44" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B45" t="s">
         <v>131</v>
@@ -3287,26 +3115,22 @@
       <c r="C45" t="s">
         <v>132</v>
       </c>
-      <c r="D45" t="s">
-        <v>540</v>
+      <c r="D45" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E45" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G45">
-        <v>27</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>Participated</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>548</v>
+      <c r="F45" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G45" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B46" t="s">
         <v>134</v>
@@ -3314,26 +3138,22 @@
       <c r="C46" t="s">
         <v>135</v>
       </c>
-      <c r="D46" t="s">
-        <v>540</v>
+      <c r="D46" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G46">
-        <v>74</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>548</v>
+      <c r="F46" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G46" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B47" t="s">
         <v>137</v>
@@ -3341,26 +3161,22 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="D47" t="s">
-        <v>538</v>
+      <c r="D47" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E47" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G47">
-        <v>78</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>548</v>
+      <c r="F47" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G47" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B48" t="s">
         <v>140</v>
@@ -3368,26 +3184,22 @@
       <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="D48" t="s">
-        <v>538</v>
+      <c r="D48" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E48" t="s">
         <v>142</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G48">
-        <v>75</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>548</v>
+      <c r="F48" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G48" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B49" t="s">
         <v>143</v>
@@ -3395,26 +3207,22 @@
       <c r="C49" t="s">
         <v>144</v>
       </c>
-      <c r="D49" t="s">
-        <v>540</v>
+      <c r="D49" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E49" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G49">
-        <v>59</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="F49" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G49" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B50" t="s">
         <v>146</v>
@@ -3422,26 +3230,22 @@
       <c r="C50" t="s">
         <v>147</v>
       </c>
-      <c r="D50" t="s">
-        <v>539</v>
+      <c r="D50" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E50" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G50">
-        <v>76</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>548</v>
+      <c r="F50" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G50" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B51" t="s">
         <v>149</v>
@@ -3449,26 +3253,22 @@
       <c r="C51" t="s">
         <v>150</v>
       </c>
-      <c r="D51" t="s">
-        <v>541</v>
+      <c r="D51" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E51" t="s">
         <v>151</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G51">
-        <v>77</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>548</v>
+      <c r="F51" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G51" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B52" t="s">
         <v>152</v>
@@ -3476,26 +3276,22 @@
       <c r="C52" t="s">
         <v>153</v>
       </c>
-      <c r="D52" t="s">
-        <v>542</v>
+      <c r="D52" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="E52" t="s">
         <v>154</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G52">
-        <v>79</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>548</v>
+      <c r="F52" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G52" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B53" t="s">
         <v>155</v>
@@ -3503,26 +3299,22 @@
       <c r="C53" t="s">
         <v>156</v>
       </c>
-      <c r="D53" t="s">
-        <v>538</v>
+      <c r="D53" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E53" t="s">
         <v>157</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G53">
-        <v>61</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="F53" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G53" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B54" t="s">
         <v>158</v>
@@ -3530,26 +3322,22 @@
       <c r="C54" t="s">
         <v>159</v>
       </c>
-      <c r="D54" t="s">
-        <v>541</v>
+      <c r="D54" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E54" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G54" t="s">
         <v>549</v>
       </c>
-      <c r="G54">
-        <v>73</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B55" t="s">
         <v>161</v>
@@ -3557,26 +3345,22 @@
       <c r="C55" t="s">
         <v>162</v>
       </c>
-      <c r="D55" t="s">
-        <v>541</v>
+      <c r="D55" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E55" t="s">
         <v>163</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G55">
-        <v>60</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="F55" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G55" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B56" t="s">
         <v>164</v>
@@ -3584,26 +3368,22 @@
       <c r="C56" t="s">
         <v>165</v>
       </c>
-      <c r="D56" t="s">
-        <v>538</v>
+      <c r="D56" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E56" t="s">
         <v>166</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G56" t="s">
         <v>549</v>
       </c>
-      <c r="G56">
-        <v>73</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B57" t="s">
         <v>167</v>
@@ -3611,26 +3391,22 @@
       <c r="C57" t="s">
         <v>168</v>
       </c>
-      <c r="D57" t="s">
-        <v>538</v>
+      <c r="D57" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E57" t="s">
         <v>169</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G57">
-        <v>76</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>548</v>
+      <c r="F57" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G57" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B58" t="s">
         <v>170</v>
@@ -3638,26 +3414,22 @@
       <c r="C58" t="s">
         <v>171</v>
       </c>
-      <c r="D58" t="s">
-        <v>538</v>
+      <c r="D58" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E58" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G58">
-        <v>76</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>548</v>
+      <c r="F58" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G58" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B59" t="s">
         <v>173</v>
@@ -3665,26 +3437,22 @@
       <c r="C59" t="s">
         <v>174</v>
       </c>
-      <c r="D59" t="s">
-        <v>538</v>
+      <c r="D59" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E59" t="s">
         <v>175</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G59">
-        <v>27</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>Participated</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>548</v>
+      <c r="F59" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G59" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B60" t="s">
         <v>176</v>
@@ -3692,26 +3460,22 @@
       <c r="C60" t="s">
         <v>177</v>
       </c>
-      <c r="D60" t="s">
-        <v>538</v>
+      <c r="D60" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E60" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G60">
-        <v>78</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>548</v>
+      <c r="F60" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G60" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B61" t="s">
         <v>179</v>
@@ -3719,26 +3483,22 @@
       <c r="C61" t="s">
         <v>180</v>
       </c>
-      <c r="D61" t="s">
-        <v>538</v>
+      <c r="D61" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E61" t="s">
         <v>181</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G61">
-        <v>77</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>548</v>
+      <c r="F61" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G61" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B62" t="s">
         <v>182</v>
@@ -3746,26 +3506,22 @@
       <c r="C62" t="s">
         <v>183</v>
       </c>
-      <c r="D62" t="s">
-        <v>538</v>
+      <c r="D62" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E62" t="s">
         <v>184</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G62">
-        <v>75</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>548</v>
+      <c r="F62" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G62" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B63" t="s">
         <v>185</v>
@@ -3773,26 +3529,22 @@
       <c r="C63" t="s">
         <v>186</v>
       </c>
-      <c r="D63" t="s">
-        <v>538</v>
+      <c r="D63" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E63" t="s">
         <v>187</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G63">
-        <v>33</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured Passing grade</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>548</v>
+      <c r="F63" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G63" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B64" t="s">
         <v>188</v>
@@ -3800,26 +3552,22 @@
       <c r="C64" t="s">
         <v>189</v>
       </c>
-      <c r="D64" t="s">
-        <v>538</v>
+      <c r="D64" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E64" t="s">
         <v>190</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G64" t="s">
         <v>549</v>
       </c>
-      <c r="G64">
-        <v>71</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B65" t="s">
         <v>191</v>
@@ -3827,26 +3575,22 @@
       <c r="C65" t="s">
         <v>192</v>
       </c>
-      <c r="D65" t="s">
-        <v>538</v>
+      <c r="D65" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E65" t="s">
         <v>193</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G65">
-        <v>56</v>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="F65" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G65" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B66" t="s">
         <v>194</v>
@@ -3854,26 +3598,22 @@
       <c r="C66" t="s">
         <v>195</v>
       </c>
-      <c r="D66" t="s">
-        <v>543</v>
+      <c r="D66" s="5">
+        <v>5</v>
       </c>
       <c r="E66" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G66" t="s">
         <v>549</v>
       </c>
-      <c r="G66">
-        <v>62</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="0"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B67" t="s">
         <v>197</v>
@@ -3881,32 +3621,22 @@
       <c r="C67" t="s">
         <v>198</v>
       </c>
-      <c r="D67" t="s">
-        <v>543</v>
+      <c r="D67" s="5">
+        <v>5</v>
       </c>
       <c r="E67" t="s">
         <v>199</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G67" t="s">
         <v>549</v>
       </c>
-      <c r="G67">
-        <v>70</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="1">IF(G67="","",
- IF(G67/100&gt;=0.81,"Secured A+",
- IF(G67/100&gt;=0.71,"Secured A",
- IF(G67/100&gt;=0.61,"Secured B",
- IF(G67/100&gt;=0.51,"Secured C",
- IF(G67/100&gt;=0.33,"Secured Passing grade",
- "Participated"))))))</f>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B68" t="s">
         <v>200</v>
@@ -3914,26 +3644,22 @@
       <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="D68" t="s">
-        <v>543</v>
+      <c r="D68" s="5">
+        <v>5</v>
       </c>
       <c r="E68" t="s">
         <v>202</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G68" t="s">
         <v>549</v>
       </c>
-      <c r="G68">
-        <v>73</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B69" t="s">
         <v>203</v>
@@ -3941,26 +3667,22 @@
       <c r="C69" t="s">
         <v>204</v>
       </c>
-      <c r="D69" t="s">
-        <v>543</v>
+      <c r="D69" s="5">
+        <v>5</v>
       </c>
       <c r="E69" t="s">
         <v>205</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G69" t="s">
         <v>549</v>
       </c>
-      <c r="G69">
-        <v>73</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B70" t="s">
         <v>206</v>
@@ -3968,26 +3690,22 @@
       <c r="C70" t="s">
         <v>207</v>
       </c>
-      <c r="D70" t="s">
-        <v>540</v>
+      <c r="D70" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E70" t="s">
         <v>208</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G70">
-        <v>59</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="F70" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G70" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B71" t="s">
         <v>209</v>
@@ -3995,26 +3713,22 @@
       <c r="C71" t="s">
         <v>210</v>
       </c>
-      <c r="D71" t="s">
-        <v>540</v>
+      <c r="D71" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E71" t="s">
         <v>211</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G71">
-        <v>77</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>548</v>
+      <c r="F71" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G71" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B72" t="s">
         <v>212</v>
@@ -4022,26 +3736,22 @@
       <c r="C72" t="s">
         <v>213</v>
       </c>
-      <c r="D72" t="s">
-        <v>540</v>
+      <c r="D72" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E72" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G72">
-        <v>60</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="F72" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G72" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B73" t="s">
         <v>215</v>
@@ -4049,26 +3759,22 @@
       <c r="C73" t="s">
         <v>216</v>
       </c>
-      <c r="D73" t="s">
-        <v>540</v>
+      <c r="D73" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E73" t="s">
         <v>217</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" t="s">
         <v>549</v>
       </c>
-      <c r="G73">
-        <v>73</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B74" t="s">
         <v>218</v>
@@ -4076,26 +3782,22 @@
       <c r="C74" t="s">
         <v>219</v>
       </c>
-      <c r="D74" t="s">
-        <v>538</v>
+      <c r="D74" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E74" t="s">
         <v>220</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G74">
-        <v>45</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured Passing grade</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="F74" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G74" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B75" t="s">
         <v>221</v>
@@ -4103,26 +3805,22 @@
       <c r="C75" t="s">
         <v>222</v>
       </c>
-      <c r="D75" t="s">
-        <v>539</v>
+      <c r="D75" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E75" t="s">
         <v>223</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G75">
-        <v>56</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="F75" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G75" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B76" t="s">
         <v>224</v>
@@ -4130,26 +3828,22 @@
       <c r="C76" t="s">
         <v>225</v>
       </c>
-      <c r="D76" t="s">
-        <v>537</v>
+      <c r="D76" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E76" t="s">
         <v>226</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G76" t="s">
         <v>549</v>
       </c>
-      <c r="G76">
-        <v>70</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B77" t="s">
         <v>227</v>
@@ -4157,26 +3851,22 @@
       <c r="C77" t="s">
         <v>228</v>
       </c>
-      <c r="D77" t="s">
-        <v>537</v>
+      <c r="D77" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E77" t="s">
         <v>229</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G77">
-        <v>27</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="1"/>
-        <v>Participated</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>548</v>
+      <c r="F77" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G77" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B78" t="s">
         <v>230</v>
@@ -4184,26 +3874,22 @@
       <c r="C78" t="s">
         <v>231</v>
       </c>
-      <c r="D78" t="s">
-        <v>537</v>
+      <c r="D78" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E78" t="s">
         <v>232</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G78">
-        <v>58</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="F78" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G78" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B79" t="s">
         <v>233</v>
@@ -4211,26 +3897,22 @@
       <c r="C79" t="s">
         <v>234</v>
       </c>
-      <c r="D79" t="s">
-        <v>540</v>
+      <c r="D79" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E79" t="s">
         <v>235</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G79">
-        <v>61</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="F79" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G79" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B80" t="s">
         <v>236</v>
@@ -4238,26 +3920,22 @@
       <c r="C80" t="s">
         <v>237</v>
       </c>
-      <c r="D80" t="s">
-        <v>537</v>
+      <c r="D80" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E80" t="s">
         <v>238</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G80">
-        <v>56</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="F80" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G80" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B81" t="s">
         <v>239</v>
@@ -4265,26 +3943,22 @@
       <c r="C81" t="s">
         <v>240</v>
       </c>
-      <c r="D81" t="s">
-        <v>541</v>
+      <c r="D81" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E81" t="s">
         <v>241</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G81" t="s">
         <v>549</v>
       </c>
-      <c r="G81">
-        <v>62</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B82" t="s">
         <v>242</v>
@@ -4292,26 +3966,22 @@
       <c r="C82" t="s">
         <v>243</v>
       </c>
-      <c r="D82" t="s">
-        <v>541</v>
+      <c r="D82" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E82" t="s">
         <v>244</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G82">
-        <v>55</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="F82" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G82" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B83" t="s">
         <v>245</v>
@@ -4319,26 +3989,22 @@
       <c r="C83" t="s">
         <v>246</v>
       </c>
-      <c r="D83" t="s">
-        <v>537</v>
+      <c r="D83" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E83" t="s">
         <v>247</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G83">
-        <v>32</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="1"/>
-        <v>Participated</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>548</v>
+      <c r="F83" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G83" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B84" t="s">
         <v>248</v>
@@ -4346,26 +4012,22 @@
       <c r="C84" t="s">
         <v>249</v>
       </c>
-      <c r="D84" t="s">
-        <v>539</v>
+      <c r="D84" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E84" t="s">
         <v>250</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G84" t="s">
         <v>549</v>
       </c>
-      <c r="G84">
-        <v>70</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured B</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B85" t="s">
         <v>251</v>
@@ -4373,26 +4035,22 @@
       <c r="C85" t="s">
         <v>252</v>
       </c>
-      <c r="D85" t="s">
-        <v>537</v>
+      <c r="D85" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E85" t="s">
         <v>253</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G85" t="s">
         <v>549</v>
       </c>
-      <c r="G85">
-        <v>72</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>548</v>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B86" t="s">
         <v>254</v>
@@ -4400,26 +4058,22 @@
       <c r="C86" t="s">
         <v>255</v>
       </c>
-      <c r="D86" t="s">
-        <v>541</v>
+      <c r="D86" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E86" t="s">
         <v>256</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G86">
-        <v>60</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured C</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="F86" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G86" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B87" t="s">
         <v>257</v>
@@ -4427,26 +4081,22 @@
       <c r="C87" t="s">
         <v>258</v>
       </c>
-      <c r="D87" t="s">
-        <v>541</v>
+      <c r="D87" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E87" t="s">
         <v>259</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G87">
-        <v>77</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>548</v>
+      <c r="F87" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B88" t="s">
         <v>260</v>
@@ -4454,26 +4104,22 @@
       <c r="C88" t="s">
         <v>261</v>
       </c>
-      <c r="D88" t="s">
-        <v>534</v>
+      <c r="D88" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E88" t="s">
         <v>262</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G88">
-        <v>82</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>548</v>
+      <c r="F88" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G88" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B89" t="s">
         <v>263</v>
@@ -4481,26 +4127,22 @@
       <c r="C89" t="s">
         <v>264</v>
       </c>
-      <c r="D89" t="s">
-        <v>534</v>
+      <c r="D89" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E89" t="s">
         <v>265</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G89">
-        <v>89</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>548</v>
+      <c r="F89" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G89" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B90" t="s">
         <v>266</v>
@@ -4508,26 +4150,22 @@
       <c r="C90" t="s">
         <v>267</v>
       </c>
-      <c r="D90" t="s">
-        <v>534</v>
+      <c r="D90" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E90" t="s">
         <v>268</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G90">
-        <v>86</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>548</v>
+      <c r="F90" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B91" t="s">
         <v>269</v>
@@ -4535,26 +4173,22 @@
       <c r="C91" t="s">
         <v>270</v>
       </c>
-      <c r="D91" t="s">
-        <v>541</v>
+      <c r="D91" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E91" t="s">
         <v>271</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G91">
-        <v>85</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>548</v>
+      <c r="F91" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G91" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B92" t="s">
         <v>272</v>
@@ -4562,26 +4196,22 @@
       <c r="C92" t="s">
         <v>273</v>
       </c>
-      <c r="D92" t="s">
-        <v>534</v>
+      <c r="D92" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E92" t="s">
         <v>274</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G92">
-        <v>83</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>548</v>
+      <c r="F92" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G92" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B93" t="s">
         <v>269</v>
@@ -4589,26 +4219,22 @@
       <c r="C93" t="s">
         <v>275</v>
       </c>
-      <c r="D93" t="s">
-        <v>543</v>
+      <c r="D93" s="5">
+        <v>5</v>
       </c>
       <c r="E93" t="s">
         <v>276</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G93">
-        <v>89</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>548</v>
+      <c r="F93" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G93" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B94" t="s">
         <v>277</v>
@@ -4616,26 +4242,22 @@
       <c r="C94" t="s">
         <v>278</v>
       </c>
-      <c r="D94" t="s">
-        <v>534</v>
+      <c r="D94" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E94" t="s">
         <v>279</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G94">
-        <v>82</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>548</v>
+      <c r="F94" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G94" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B95" t="s">
         <v>280</v>
@@ -4643,26 +4265,22 @@
       <c r="C95" t="s">
         <v>281</v>
       </c>
-      <c r="D95" t="s">
-        <v>538</v>
+      <c r="D95" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E95" t="s">
         <v>282</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G95">
-        <v>80</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>548</v>
+      <c r="F95" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G95" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B96" t="s">
         <v>283</v>
@@ -4670,26 +4288,22 @@
       <c r="C96" t="s">
         <v>284</v>
       </c>
-      <c r="D96" t="s">
-        <v>536</v>
+      <c r="D96" s="5" t="s">
+        <v>535</v>
       </c>
       <c r="E96" t="s">
         <v>285</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G96">
-        <v>83</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>548</v>
+      <c r="F96" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G96" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B97" t="s">
         <v>286</v>
@@ -4697,26 +4311,22 @@
       <c r="C97" t="s">
         <v>287</v>
       </c>
-      <c r="D97" t="s">
-        <v>537</v>
+      <c r="D97" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E97" t="s">
         <v>288</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G97">
-        <v>88</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>548</v>
+      <c r="F97" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G97" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B98" t="s">
         <v>289</v>
@@ -4724,26 +4334,22 @@
       <c r="C98" t="s">
         <v>290</v>
       </c>
-      <c r="D98" t="s">
-        <v>537</v>
+      <c r="D98" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E98" t="s">
         <v>291</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G98">
-        <v>89</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>548</v>
+      <c r="F98" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G98" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B99" t="s">
         <v>292</v>
@@ -4751,26 +4357,22 @@
       <c r="C99" t="s">
         <v>293</v>
       </c>
-      <c r="D99" t="s">
-        <v>537</v>
+      <c r="D99" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E99" t="s">
         <v>294</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G99">
-        <v>89</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>548</v>
+      <c r="F99" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G99" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B100" t="s">
         <v>295</v>
@@ -4778,26 +4380,22 @@
       <c r="C100" t="s">
         <v>296</v>
       </c>
-      <c r="D100" t="s">
-        <v>538</v>
+      <c r="D100" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E100" t="s">
         <v>297</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G100">
-        <v>81</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>548</v>
+      <c r="F100" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G100" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B101" t="s">
         <v>298</v>
@@ -4805,26 +4403,22 @@
       <c r="C101" t="s">
         <v>299</v>
       </c>
-      <c r="D101" t="s">
-        <v>537</v>
+      <c r="D101" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E101" t="s">
         <v>300</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G101">
-        <v>82</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>548</v>
+      <c r="F101" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G101" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B102" t="s">
         <v>301</v>
@@ -4832,26 +4426,22 @@
       <c r="C102" t="s">
         <v>302</v>
       </c>
-      <c r="D102" t="s">
-        <v>539</v>
+      <c r="D102" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E102" t="s">
         <v>303</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G102">
-        <v>86</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>548</v>
+      <c r="F102" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G102" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B103" t="s">
         <v>304</v>
@@ -4859,26 +4449,22 @@
       <c r="C103" t="s">
         <v>305</v>
       </c>
-      <c r="D103" t="s">
-        <v>538</v>
+      <c r="D103" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E103" t="s">
         <v>306</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G103">
-        <v>86</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>548</v>
+      <c r="F103" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G103" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B104" t="s">
         <v>307</v>
@@ -4886,26 +4472,22 @@
       <c r="C104" t="s">
         <v>308</v>
       </c>
-      <c r="D104" t="s">
-        <v>537</v>
+      <c r="D104" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E104" t="s">
         <v>309</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G104">
-        <v>88</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>548</v>
+      <c r="F104" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G104" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B105" t="s">
         <v>310</v>
@@ -4913,26 +4495,22 @@
       <c r="C105" t="s">
         <v>311</v>
       </c>
-      <c r="D105" t="s">
-        <v>537</v>
+      <c r="D105" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E105" t="s">
         <v>312</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G105">
-        <v>80</v>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>548</v>
+      <c r="F105" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G105" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B106" t="s">
         <v>313</v>
@@ -4940,26 +4518,22 @@
       <c r="C106" t="s">
         <v>314</v>
       </c>
-      <c r="D106" t="s">
-        <v>539</v>
+      <c r="D106" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E106" t="s">
         <v>315</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G106">
-        <v>81</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>548</v>
+      <c r="F106" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G106" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B107" t="s">
         <v>316</v>
@@ -4967,26 +4541,22 @@
       <c r="C107" t="s">
         <v>317</v>
       </c>
-      <c r="D107" t="s">
-        <v>539</v>
+      <c r="D107" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E107" t="s">
         <v>318</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G107">
-        <v>85</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>548</v>
+      <c r="F107" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G107" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B108" t="s">
         <v>319</v>
@@ -4994,26 +4564,22 @@
       <c r="C108" t="s">
         <v>320</v>
       </c>
-      <c r="D108" t="s">
-        <v>539</v>
+      <c r="D108" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E108" t="s">
         <v>321</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G108">
-        <v>84</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>548</v>
+      <c r="F108" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G108" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B109" t="s">
         <v>322</v>
@@ -5021,26 +4587,22 @@
       <c r="C109" t="s">
         <v>323</v>
       </c>
-      <c r="D109" t="s">
-        <v>539</v>
+      <c r="D109" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E109" t="s">
         <v>324</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G109">
-        <v>88</v>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>548</v>
+      <c r="F109" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G109" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B110" t="s">
         <v>325</v>
@@ -5048,26 +4610,22 @@
       <c r="C110" t="s">
         <v>326</v>
       </c>
-      <c r="D110" t="s">
-        <v>539</v>
+      <c r="D110" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E110" t="s">
         <v>327</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G110">
-        <v>84</v>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>548</v>
+      <c r="F110" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G110" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B111" t="s">
         <v>328</v>
@@ -5075,26 +4633,22 @@
       <c r="C111" t="s">
         <v>329</v>
       </c>
-      <c r="D111" t="s">
-        <v>539</v>
+      <c r="D111" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E111" t="s">
         <v>330</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G111">
-        <v>85</v>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>548</v>
+      <c r="F111" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G111" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B112" t="s">
         <v>331</v>
@@ -5102,26 +4656,22 @@
       <c r="C112" t="s">
         <v>159</v>
       </c>
-      <c r="D112" t="s">
-        <v>539</v>
+      <c r="D112" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E112" t="s">
         <v>332</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G112">
-        <v>80</v>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>548</v>
+      <c r="F112" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G112" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B113" t="s">
         <v>333</v>
@@ -5129,26 +4679,22 @@
       <c r="C113" t="s">
         <v>334</v>
       </c>
-      <c r="D113" t="s">
-        <v>539</v>
+      <c r="D113" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E113" t="s">
         <v>335</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G113">
-        <v>97</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>548</v>
+      <c r="F113" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G113" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B114" t="s">
         <v>336</v>
@@ -5156,26 +4702,22 @@
       <c r="C114" t="s">
         <v>337</v>
       </c>
-      <c r="D114" t="s">
-        <v>544</v>
+      <c r="D114" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="E114" t="s">
         <v>338</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G114">
-        <v>81</v>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>548</v>
+      <c r="F114" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G114" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B115" t="s">
         <v>339</v>
@@ -5183,26 +4725,22 @@
       <c r="C115" t="s">
         <v>340</v>
       </c>
-      <c r="D115" t="s">
-        <v>541</v>
+      <c r="D115" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E115" t="s">
         <v>341</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G115">
-        <v>82</v>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>548</v>
+      <c r="F115" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G115" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B116" t="s">
         <v>342</v>
@@ -5210,26 +4748,22 @@
       <c r="C116" t="s">
         <v>343</v>
       </c>
-      <c r="D116" t="s">
-        <v>541</v>
+      <c r="D116" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E116" t="s">
         <v>344</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G116">
-        <v>87</v>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>548</v>
+      <c r="F116" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G116" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B117" t="s">
         <v>345</v>
@@ -5237,26 +4771,22 @@
       <c r="C117" t="s">
         <v>346</v>
       </c>
-      <c r="D117" t="s">
-        <v>545</v>
+      <c r="D117" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E117" t="s">
         <v>347</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G117">
-        <v>84</v>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>548</v>
+      <c r="F117" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G117" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B118" t="s">
         <v>348</v>
@@ -5264,26 +4794,22 @@
       <c r="C118" t="s">
         <v>349</v>
       </c>
-      <c r="D118" t="s">
-        <v>541</v>
+      <c r="D118" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E118" t="s">
         <v>350</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G118">
-        <v>87</v>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>548</v>
+      <c r="F118" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G118" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B119" t="s">
         <v>351</v>
@@ -5291,26 +4817,22 @@
       <c r="C119" t="s">
         <v>352</v>
       </c>
-      <c r="D119" t="s">
-        <v>541</v>
+      <c r="D119" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E119" t="s">
         <v>353</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G119">
-        <v>88</v>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>548</v>
+      <c r="F119" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G119" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B120" t="s">
         <v>354</v>
@@ -5318,26 +4840,22 @@
       <c r="C120" t="s">
         <v>355</v>
       </c>
-      <c r="D120" t="s">
-        <v>540</v>
+      <c r="D120" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E120" t="s">
         <v>356</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G120">
-        <v>84</v>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>548</v>
+      <c r="F120" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G120" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B121" t="s">
         <v>357</v>
@@ -5345,26 +4863,22 @@
       <c r="C121" t="s">
         <v>358</v>
       </c>
-      <c r="D121" t="s">
-        <v>540</v>
+      <c r="D121" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E121" t="s">
         <v>359</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G121">
-        <v>81</v>
-      </c>
-      <c r="H121" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>548</v>
+      <c r="F121" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G121" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B122" t="s">
         <v>360</v>
@@ -5372,26 +4886,22 @@
       <c r="C122" t="s">
         <v>361</v>
       </c>
-      <c r="D122" t="s">
-        <v>541</v>
+      <c r="D122" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E122" t="s">
         <v>362</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G122">
-        <v>81</v>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>548</v>
+      <c r="F122" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G122" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B123" t="s">
         <v>363</v>
@@ -5399,26 +4909,22 @@
       <c r="C123" t="s">
         <v>364</v>
       </c>
-      <c r="D123" t="s">
-        <v>541</v>
+      <c r="D123" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E123" t="s">
         <v>365</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G123">
-        <v>89</v>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>548</v>
+      <c r="F123" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G123" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B124" t="s">
         <v>366</v>
@@ -5426,26 +4932,22 @@
       <c r="C124" t="s">
         <v>367</v>
       </c>
-      <c r="D124" t="s">
-        <v>538</v>
+      <c r="D124" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E124" t="s">
         <v>368</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G124">
-        <v>89</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>548</v>
+      <c r="F124" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G124" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B125" t="s">
         <v>369</v>
@@ -5453,26 +4955,22 @@
       <c r="C125" t="s">
         <v>370</v>
       </c>
-      <c r="D125" t="s">
-        <v>538</v>
+      <c r="D125" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E125" t="s">
         <v>371</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G125">
-        <v>87</v>
-      </c>
-      <c r="H125" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>548</v>
+      <c r="F125" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G125" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B126" t="s">
         <v>372</v>
@@ -5480,26 +4978,22 @@
       <c r="C126" t="s">
         <v>373</v>
       </c>
-      <c r="D126" t="s">
-        <v>538</v>
+      <c r="D126" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E126" t="s">
         <v>374</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G126">
-        <v>82</v>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>548</v>
+      <c r="F126" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G126" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B127" t="s">
         <v>375</v>
@@ -5507,26 +5001,22 @@
       <c r="C127" t="s">
         <v>376</v>
       </c>
-      <c r="D127" t="s">
-        <v>538</v>
+      <c r="D127" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E127" t="s">
         <v>377</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G127">
-        <v>83</v>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>548</v>
+      <c r="F127" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G127" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B128" t="s">
         <v>378</v>
@@ -5534,26 +5024,22 @@
       <c r="C128" t="s">
         <v>379</v>
       </c>
-      <c r="D128" t="s">
-        <v>540</v>
+      <c r="D128" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E128" t="s">
         <v>380</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G128">
-        <v>87</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>548</v>
+      <c r="F128" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G128" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B129" t="s">
         <v>381</v>
@@ -5561,26 +5047,22 @@
       <c r="C129" t="s">
         <v>382</v>
       </c>
-      <c r="D129" t="s">
-        <v>538</v>
+      <c r="D129" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E129" t="s">
         <v>383</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G129">
-        <v>81</v>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>548</v>
+      <c r="F129" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G129" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B130" t="s">
         <v>384</v>
@@ -5588,26 +5070,22 @@
       <c r="C130" t="s">
         <v>385</v>
       </c>
-      <c r="D130" t="s">
-        <v>538</v>
+      <c r="D130" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E130" t="s">
         <v>386</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G130">
-        <v>87</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" si="1"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>548</v>
+      <c r="F130" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G130" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B131" t="s">
         <v>387</v>
@@ -5615,32 +5093,22 @@
       <c r="C131" t="s">
         <v>388</v>
       </c>
-      <c r="D131" t="s">
-        <v>538</v>
+      <c r="D131" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E131" t="s">
         <v>389</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G131">
-        <v>87</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" ref="H131:H178" si="2">IF(G131="","",
- IF(G131/100&gt;=0.81,"Secured A+",
- IF(G131/100&gt;=0.71,"Secured A",
- IF(G131/100&gt;=0.61,"Secured B",
- IF(G131/100&gt;=0.51,"Secured C",
- IF(G131/100&gt;=0.33,"Secured Passing grade",
- "Participated"))))))</f>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>548</v>
+      <c r="F131" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G131" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B132" t="s">
         <v>390</v>
@@ -5648,26 +5116,22 @@
       <c r="C132" t="s">
         <v>391</v>
       </c>
-      <c r="D132" t="s">
-        <v>538</v>
+      <c r="D132" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E132" t="s">
         <v>392</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G132">
-        <v>85</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>548</v>
+      <c r="F132" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G132" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B133" t="s">
         <v>393</v>
@@ -5675,26 +5139,22 @@
       <c r="C133" t="s">
         <v>394</v>
       </c>
-      <c r="D133" t="s">
-        <v>543</v>
+      <c r="D133" s="5">
+        <v>5</v>
       </c>
       <c r="E133" t="s">
         <v>395</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G133">
-        <v>89</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>548</v>
+      <c r="F133" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G133" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B134" t="s">
         <v>396</v>
@@ -5702,26 +5162,22 @@
       <c r="C134" t="s">
         <v>397</v>
       </c>
-      <c r="D134" t="s">
-        <v>544</v>
+      <c r="D134" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="E134" t="s">
         <v>398</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G134">
-        <v>84</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>548</v>
+      <c r="F134" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G134" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B135" t="s">
         <v>399</v>
@@ -5729,26 +5185,22 @@
       <c r="C135" t="s">
         <v>400</v>
       </c>
-      <c r="D135" t="s">
-        <v>543</v>
+      <c r="D135" s="5">
+        <v>5</v>
       </c>
       <c r="E135" t="s">
         <v>401</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G135">
-        <v>81</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>548</v>
+      <c r="F135" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G135" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B136" t="s">
         <v>402</v>
@@ -5756,26 +5208,22 @@
       <c r="C136" t="s">
         <v>403</v>
       </c>
-      <c r="D136" t="s">
-        <v>546</v>
+      <c r="D136" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="E136" t="s">
         <v>404</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G136">
-        <v>84</v>
-      </c>
-      <c r="H136" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>548</v>
+      <c r="F136" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G136" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B137" t="s">
         <v>269</v>
@@ -5783,26 +5231,22 @@
       <c r="C137" t="s">
         <v>405</v>
       </c>
-      <c r="D137" t="s">
-        <v>538</v>
+      <c r="D137" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E137" t="s">
         <v>406</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G137">
-        <v>87</v>
-      </c>
-      <c r="H137" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>548</v>
+      <c r="F137" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G137" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B138" t="s">
         <v>407</v>
@@ -5810,26 +5254,22 @@
       <c r="C138" t="s">
         <v>408</v>
       </c>
-      <c r="D138" t="s">
-        <v>538</v>
+      <c r="D138" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E138" t="s">
         <v>409</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G138">
-        <v>80</v>
-      </c>
-      <c r="H138" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>548</v>
+      <c r="F138" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G138" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B139" t="s">
         <v>410</v>
@@ -5837,26 +5277,22 @@
       <c r="C139" t="s">
         <v>411</v>
       </c>
-      <c r="D139" t="s">
-        <v>543</v>
+      <c r="D139" s="5">
+        <v>5</v>
       </c>
       <c r="E139" t="s">
         <v>412</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G139">
-        <v>81</v>
-      </c>
-      <c r="H139" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>548</v>
+      <c r="F139" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G139" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B140" t="s">
         <v>413</v>
@@ -5864,26 +5300,22 @@
       <c r="C140" t="s">
         <v>414</v>
       </c>
-      <c r="D140" t="s">
-        <v>540</v>
+      <c r="D140" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E140" t="s">
         <v>415</v>
       </c>
-      <c r="F140" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G140">
-        <v>80</v>
-      </c>
-      <c r="H140" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>548</v>
+      <c r="F140" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G140" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B141" t="s">
         <v>416</v>
@@ -5891,26 +5323,22 @@
       <c r="C141" t="s">
         <v>417</v>
       </c>
-      <c r="D141" t="s">
-        <v>538</v>
+      <c r="D141" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E141" t="s">
         <v>418</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G141">
-        <v>81</v>
-      </c>
-      <c r="H141" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>548</v>
+      <c r="F141" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G141" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B142" t="s">
         <v>419</v>
@@ -5918,26 +5346,22 @@
       <c r="C142" t="s">
         <v>420</v>
       </c>
-      <c r="D142" t="s">
-        <v>541</v>
+      <c r="D142" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E142" t="s">
         <v>421</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G142">
-        <v>80</v>
-      </c>
-      <c r="H142" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>548</v>
+      <c r="F142" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G142" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B143" t="s">
         <v>422</v>
@@ -5945,26 +5369,22 @@
       <c r="C143" t="s">
         <v>423</v>
       </c>
-      <c r="D143" t="s">
-        <v>544</v>
+      <c r="D143" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="E143" t="s">
         <v>424</v>
       </c>
-      <c r="F143" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G143">
-        <v>82</v>
-      </c>
-      <c r="H143" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>548</v>
+      <c r="F143" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G143" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B144" t="s">
         <v>425</v>
@@ -5972,26 +5392,22 @@
       <c r="C144" t="s">
         <v>426</v>
       </c>
-      <c r="D144" t="s">
-        <v>541</v>
+      <c r="D144" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E144" t="s">
         <v>427</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G144">
-        <v>87</v>
-      </c>
-      <c r="H144" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>548</v>
+      <c r="F144" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G144" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B145" t="s">
         <v>428</v>
@@ -5999,26 +5415,22 @@
       <c r="C145" t="s">
         <v>429</v>
       </c>
-      <c r="D145" t="s">
-        <v>539</v>
+      <c r="D145" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E145" t="s">
         <v>430</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G145">
-        <v>89</v>
-      </c>
-      <c r="H145" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>548</v>
+      <c r="F145" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G145" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B146" t="s">
         <v>431</v>
@@ -6026,26 +5438,22 @@
       <c r="C146" t="s">
         <v>432</v>
       </c>
-      <c r="D146" t="s">
-        <v>539</v>
+      <c r="D146" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E146" t="s">
         <v>433</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G146">
-        <v>84</v>
-      </c>
-      <c r="H146" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>548</v>
+      <c r="F146" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G146" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B147" t="s">
         <v>434</v>
@@ -6053,26 +5461,22 @@
       <c r="C147" t="s">
         <v>435</v>
       </c>
-      <c r="D147" t="s">
-        <v>537</v>
+      <c r="D147" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E147" t="s">
         <v>436</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G147">
-        <v>81</v>
-      </c>
-      <c r="H147" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>548</v>
+      <c r="F147" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G147" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B148" t="s">
         <v>437</v>
@@ -6080,26 +5484,22 @@
       <c r="C148" t="s">
         <v>438</v>
       </c>
-      <c r="D148" t="s">
-        <v>537</v>
+      <c r="D148" s="5" t="s">
+        <v>536</v>
       </c>
       <c r="E148" t="s">
         <v>439</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G148">
-        <v>80</v>
-      </c>
-      <c r="H148" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>548</v>
+      <c r="F148" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G148" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B149" t="s">
         <v>440</v>
@@ -6107,26 +5507,22 @@
       <c r="C149" t="s">
         <v>441</v>
       </c>
-      <c r="D149" t="s">
-        <v>545</v>
+      <c r="D149" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E149" t="s">
         <v>442</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G149">
-        <v>88</v>
-      </c>
-      <c r="H149" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>548</v>
+      <c r="F149" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G149" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B150" t="s">
         <v>443</v>
@@ -6134,26 +5530,22 @@
       <c r="C150" t="s">
         <v>444</v>
       </c>
-      <c r="D150" t="s">
-        <v>539</v>
+      <c r="D150" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E150" t="s">
         <v>445</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G150">
-        <v>81</v>
-      </c>
-      <c r="H150" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>548</v>
+      <c r="F150" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G150" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B151" t="s">
         <v>446</v>
@@ -6161,26 +5553,22 @@
       <c r="C151" t="s">
         <v>447</v>
       </c>
-      <c r="D151" t="s">
-        <v>540</v>
+      <c r="D151" s="5" t="s">
+        <v>539</v>
       </c>
       <c r="E151" t="s">
         <v>448</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G151">
-        <v>81</v>
-      </c>
-      <c r="H151" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>548</v>
+      <c r="F151" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G151" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B152" t="s">
         <v>449</v>
@@ -6188,26 +5576,22 @@
       <c r="C152" t="s">
         <v>450</v>
       </c>
-      <c r="D152" t="s">
-        <v>544</v>
+      <c r="D152" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="E152" t="s">
         <v>424</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G152">
-        <v>81</v>
-      </c>
-      <c r="H152" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>548</v>
+      <c r="F152" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G152" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B153" t="s">
         <v>451</v>
@@ -6215,26 +5599,22 @@
       <c r="C153" t="s">
         <v>452</v>
       </c>
-      <c r="D153" t="s">
-        <v>542</v>
+      <c r="D153" s="5" t="s">
+        <v>541</v>
       </c>
       <c r="E153" t="s">
         <v>453</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G153">
-        <v>92</v>
-      </c>
-      <c r="H153" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>548</v>
+      <c r="F153" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G153" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B154" t="s">
         <v>454</v>
@@ -6242,26 +5622,22 @@
       <c r="C154" t="s">
         <v>455</v>
       </c>
-      <c r="D154" t="s">
-        <v>534</v>
+      <c r="D154" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E154" t="s">
         <v>456</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G154">
-        <v>93</v>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>548</v>
+      <c r="F154" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G154" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B155" t="s">
         <v>457</v>
@@ -6269,26 +5645,22 @@
       <c r="C155" t="s">
         <v>458</v>
       </c>
-      <c r="D155" t="s">
-        <v>534</v>
+      <c r="D155" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E155" t="s">
         <v>459</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G155">
-        <v>91</v>
-      </c>
-      <c r="H155" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>548</v>
+      <c r="F155" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G155" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B156" t="s">
         <v>460</v>
@@ -6296,26 +5668,22 @@
       <c r="C156" t="s">
         <v>461</v>
       </c>
-      <c r="D156" t="s">
-        <v>534</v>
+      <c r="D156" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E156" t="s">
         <v>462</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G156">
-        <v>91</v>
-      </c>
-      <c r="H156" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>548</v>
+      <c r="F156" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G156" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B157" t="s">
         <v>463</v>
@@ -6323,26 +5691,22 @@
       <c r="C157" t="s">
         <v>464</v>
       </c>
-      <c r="D157" t="s">
-        <v>539</v>
+      <c r="D157" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E157" t="s">
         <v>465</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G157">
-        <v>94</v>
-      </c>
-      <c r="H157" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>548</v>
+      <c r="F157" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G157" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B158" t="s">
         <v>466</v>
@@ -6350,26 +5714,22 @@
       <c r="C158" t="s">
         <v>467</v>
       </c>
-      <c r="D158" t="s">
-        <v>534</v>
+      <c r="D158" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E158" t="s">
         <v>468</v>
       </c>
-      <c r="F158" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G158">
-        <v>97</v>
-      </c>
-      <c r="H158" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>548</v>
+      <c r="F158" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G158" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B159" t="s">
         <v>469</v>
@@ -6377,26 +5737,22 @@
       <c r="C159" t="s">
         <v>470</v>
       </c>
-      <c r="D159" t="s">
-        <v>539</v>
+      <c r="D159" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E159" t="s">
         <v>471</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G159">
-        <v>93</v>
-      </c>
-      <c r="H159" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>548</v>
+      <c r="F159" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G159" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B160" t="s">
         <v>472</v>
@@ -6404,26 +5760,22 @@
       <c r="C160" t="s">
         <v>473</v>
       </c>
-      <c r="D160" t="s">
-        <v>534</v>
+      <c r="D160" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E160" t="s">
         <v>474</v>
       </c>
-      <c r="F160" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G160">
-        <v>94</v>
-      </c>
-      <c r="H160" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>548</v>
+      <c r="F160" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G160" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B161" t="s">
         <v>475</v>
@@ -6431,26 +5783,22 @@
       <c r="C161" t="s">
         <v>476</v>
       </c>
-      <c r="D161" t="s">
-        <v>534</v>
+      <c r="D161" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="E161" t="s">
         <v>477</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G161">
-        <v>94</v>
-      </c>
-      <c r="H161" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>548</v>
+      <c r="F161" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G161" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B162" t="s">
         <v>478</v>
@@ -6458,26 +5806,22 @@
       <c r="C162" t="s">
         <v>479</v>
       </c>
-      <c r="D162" t="s">
-        <v>544</v>
+      <c r="D162" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="E162" t="s">
         <v>480</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G162">
-        <v>92</v>
-      </c>
-      <c r="H162" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>548</v>
+      <c r="F162" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G162" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B163" t="s">
         <v>481</v>
@@ -6485,26 +5829,22 @@
       <c r="C163" t="s">
         <v>482</v>
       </c>
-      <c r="D163" t="s">
-        <v>538</v>
+      <c r="D163" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E163" t="s">
         <v>483</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G163">
-        <v>91</v>
-      </c>
-      <c r="H163" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>548</v>
+      <c r="F163" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G163" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B164" t="s">
         <v>484</v>
@@ -6512,26 +5852,22 @@
       <c r="C164" t="s">
         <v>485</v>
       </c>
-      <c r="D164" t="s">
-        <v>541</v>
+      <c r="D164" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E164" t="s">
         <v>486</v>
       </c>
-      <c r="F164" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G164">
-        <v>96</v>
-      </c>
-      <c r="H164" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>548</v>
+      <c r="F164" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G164" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B165" t="s">
         <v>487</v>
@@ -6539,26 +5875,22 @@
       <c r="C165" t="s">
         <v>488</v>
       </c>
-      <c r="D165" t="s">
-        <v>541</v>
+      <c r="D165" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E165" t="s">
         <v>489</v>
       </c>
-      <c r="F165" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G165">
-        <v>95</v>
-      </c>
-      <c r="H165" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>548</v>
+      <c r="F165" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G165" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B166" t="s">
         <v>490</v>
@@ -6566,26 +5898,22 @@
       <c r="C166" t="s">
         <v>491</v>
       </c>
-      <c r="D166" t="s">
-        <v>545</v>
+      <c r="D166" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E166" t="s">
         <v>492</v>
       </c>
-      <c r="F166" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G166">
-        <v>95</v>
-      </c>
-      <c r="H166" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>548</v>
+      <c r="F166" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G166" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B167" t="s">
         <v>493</v>
@@ -6593,26 +5921,22 @@
       <c r="C167" t="s">
         <v>494</v>
       </c>
-      <c r="D167" t="s">
-        <v>538</v>
+      <c r="D167" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="E167" t="s">
         <v>495</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G167">
-        <v>91</v>
-      </c>
-      <c r="H167" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>548</v>
+      <c r="F167" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G167" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B168" t="s">
         <v>496</v>
@@ -6620,26 +5944,22 @@
       <c r="C168" t="s">
         <v>497</v>
       </c>
-      <c r="D168" t="s">
-        <v>547</v>
+      <c r="D168" s="5" t="s">
+        <v>545</v>
       </c>
       <c r="E168" t="s">
         <v>498</v>
       </c>
-      <c r="F168" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G168">
-        <v>93</v>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>548</v>
+      <c r="F168" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G168" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B169" t="s">
         <v>499</v>
@@ -6647,26 +5967,22 @@
       <c r="C169" t="s">
         <v>500</v>
       </c>
-      <c r="D169" t="s">
-        <v>545</v>
+      <c r="D169" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E169" t="s">
         <v>501</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G169">
-        <v>95</v>
-      </c>
-      <c r="H169" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>548</v>
+      <c r="F169" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G169" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B170" t="s">
         <v>502</v>
@@ -6674,26 +5990,22 @@
       <c r="C170" t="s">
         <v>503</v>
       </c>
-      <c r="D170" t="s">
-        <v>545</v>
+      <c r="D170" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E170" t="s">
         <v>504</v>
       </c>
-      <c r="F170" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G170">
-        <v>93</v>
-      </c>
-      <c r="H170" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>548</v>
+      <c r="F170" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G170" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B171" t="s">
         <v>505</v>
@@ -6701,26 +6013,22 @@
       <c r="C171" t="s">
         <v>506</v>
       </c>
-      <c r="D171" t="s">
-        <v>541</v>
+      <c r="D171" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E171" t="s">
         <v>507</v>
       </c>
-      <c r="F171" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G171">
-        <v>94</v>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>548</v>
+      <c r="F171" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G171" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B172" t="s">
         <v>508</v>
@@ -6728,26 +6036,22 @@
       <c r="C172" t="s">
         <v>509</v>
       </c>
-      <c r="D172" t="s">
-        <v>541</v>
+      <c r="D172" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E172" t="s">
         <v>510</v>
       </c>
-      <c r="F172" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G172">
-        <v>95</v>
-      </c>
-      <c r="H172" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>548</v>
+      <c r="F172" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G172" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B173" t="s">
         <v>511</v>
@@ -6755,26 +6059,22 @@
       <c r="C173" t="s">
         <v>512</v>
       </c>
-      <c r="D173" t="s">
-        <v>541</v>
+      <c r="D173" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E173" t="s">
         <v>513</v>
       </c>
-      <c r="F173" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G173">
-        <v>97</v>
-      </c>
-      <c r="H173" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>548</v>
+      <c r="F173" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G173" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B174" t="s">
         <v>514</v>
@@ -6782,26 +6082,22 @@
       <c r="C174" t="s">
         <v>515</v>
       </c>
-      <c r="D174" t="s">
-        <v>541</v>
+      <c r="D174" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E174" t="s">
         <v>516</v>
       </c>
-      <c r="F174" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G174">
-        <v>97</v>
-      </c>
-      <c r="H174" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>548</v>
+      <c r="F174" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G174" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B175" t="s">
         <v>517</v>
@@ -6809,26 +6105,22 @@
       <c r="C175" t="s">
         <v>518</v>
       </c>
-      <c r="D175" t="s">
-        <v>541</v>
+      <c r="D175" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E175" t="s">
         <v>513</v>
       </c>
-      <c r="F175" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G175">
-        <v>97</v>
-      </c>
-      <c r="H175" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>548</v>
+      <c r="F175" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G175" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B176" t="s">
         <v>519</v>
@@ -6836,26 +6128,22 @@
       <c r="C176" t="s">
         <v>520</v>
       </c>
-      <c r="D176" t="s">
-        <v>545</v>
+      <c r="D176" s="5" t="s">
+        <v>543</v>
       </c>
       <c r="E176" t="s">
         <v>521</v>
       </c>
-      <c r="F176" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G176">
-        <v>95</v>
-      </c>
-      <c r="H176" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>548</v>
+      <c r="F176" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G176" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B177" t="s">
         <v>522</v>
@@ -6863,26 +6151,22 @@
       <c r="C177" t="s">
         <v>523</v>
       </c>
-      <c r="D177" t="s">
-        <v>541</v>
+      <c r="D177" s="5" t="s">
+        <v>540</v>
       </c>
       <c r="E177" t="s">
         <v>524</v>
       </c>
-      <c r="F177" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G177">
-        <v>95</v>
-      </c>
-      <c r="H177" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>548</v>
+      <c r="F177" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G177" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>546</v>
       </c>
       <c r="B178" t="s">
         <v>525</v>
@@ -6890,21 +6174,17 @@
       <c r="C178" t="s">
         <v>526</v>
       </c>
-      <c r="D178" t="s">
-        <v>539</v>
+      <c r="D178" s="5" t="s">
+        <v>538</v>
       </c>
       <c r="E178" t="s">
         <v>527</v>
       </c>
-      <c r="F178" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G178">
-        <v>91</v>
-      </c>
-      <c r="H178" t="str">
-        <f t="shared" si="2"/>
-        <v>Secured A+</v>
+      <c r="F178" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G178" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
